--- a/artfynd/A 14306-2025 artfynd.xlsx
+++ b/artfynd/A 14306-2025 artfynd.xlsx
@@ -683,12 +683,7 @@
         <v>124660465</v>
       </c>
       <c r="B2" t="n">
-        <v>57632</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57881</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
